--- a/src/geografia/ExcelsUpload/Comarca.xlsx
+++ b/src/geografia/ExcelsUpload/Comarca.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Projectes\proaV2\src\geografia\ExcelsUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comarca" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -608,7 +608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
